--- a/Datos/Database by set/Set with text box/Xlsx sets/Wizards Play Network 2012 (PWP12).xlsx
+++ b/Datos/Database by set/Set with text box/Xlsx sets/Wizards Play Network 2012 (PWP12).xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A16"/>
+  <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,105 +444,21 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Curse of Thirst</t>
+          <t>('Curse of Thirst', ['{4}{B}', 'Enchantment — Aura Curse', 'Enchant player', 'At the beginning of enchanted player’s upkeep, Curse of Thirst deals damage to that player equal to the number of Curses attached to them.'])</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>{4}{B}</t>
+          <t>('Gather the Townsfolk', ['{1}{W}', 'Sorcery', 'Create two 1/1 white Human creature tokens.', 'Fateful hour — If you have 5 or less life, create five of those tokens instead.'])</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Enchantment — Aura Curse</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Enchant player</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>At the beginning of enchanted player’s upkeep, Curse of Thirst deals damage to that player equal to the number of Curses attached to them.</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Gather the Townsfolk</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>{1}{W}</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Sorcery</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Create two 1/1 white Human creature tokens.</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Fateful hour — If you have 5 or less life, create five of those tokens instead.</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Nearheath Stalker</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>{4}{R}</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>Creature — Vampire Rogue</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>Undying (When this creature dies, if it had no +1/+1 counters on it, return it to the battlefield under its owner’s control with a +1/+1 counter on it.)</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>4/1</t>
+          <t>('Nearheath Stalker', ['{4}{R}', 'Creature — Vampire Rogue', 'Undying (When this creature dies, if it had no +1/+1 counters on it, return it to the battlefield under its owner’s control with a +1/+1 counter on it.)', '4/1'])</t>
         </is>
       </c>
     </row>
